--- a/misc/translations/en_kh_maj.xlsx
+++ b/misc/translations/en_kh_maj.xlsx
@@ -480,480 +480,480 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ប្រទេសដែលចូលរួមការអង្កេតតាមដាន​ ACORN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ទិន្នន័យ ACORN មិនមែនជាទម្រង់ត្រឹមត្រូវទេ។ មានតែទិន្នន័យដែលបង្កើតឡើងដោយជំនាន់ V២.១ ប៉ុណ្ណោះដែលត្រូវគ្នា។</t>
+          <t>‘orgname' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ប្រទេសដែលចូលរួមការអង្កេតតាមដាន​ ACORN</t>
+          <t>‘patid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>‘orgname' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+          <t>‘specdate' ទាំងអស់ត្រូវបានផ្តល់ជូន</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>‘patid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+          <t>'specdate' ទាំងអស់គឺថ្ងៃនេះ ឬមុនថ្ងៃនេះ។</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>‘specdate' ទាំងអស់ត្រូវបានផ្តល់ជូន</t>
+          <t>‘specgroup' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'specdate' ទាំងអស់គឺថ្ងៃនេះ ឬមុនថ្ងៃនេះ។</t>
+          <t>‘specid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>‘specgroup' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+          <t>កាលបរិច្ឆេទទាំងអស់នៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>‘specid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+          <t>មេរោគផ្សេងៗទៀតទាំងអស់</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>កាលបរិច្ឆេទទាំងអស់នៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+          <t>កំណត់ត្រាត្រឹមត្រូវទាំងអស់សុទ្ធតែមាន  ACORN ID។</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>មេរោគផ្សេងៗទៀតទាំងអស់</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All valid records have an ACORN ID.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាត្រឹមត្រូវទាំងអស់សុទ្ធតែមាន  ACORN ID។</t>
+          <t>ហើយបង្កើតបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>កំពុងព្យាយាមភ្ជាប់</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ហើយបង្កើតបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន</t>
+          <t>បូមឈាមបណ្តុំមេរោគក្នុងកំឡុងពេល២៤ម៉ោងនៃការសម្រាកពេទ្យ (CAI) / ការចាប់ផ្តើមការចេញរោគសញ្ញា (HAI)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>កំពុងព្យាយាមភ្ជាប់</t>
+          <t>ការបណ្តុះមេរោគក្នុងឈាមដែល contaminants</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>បូមឈាមបណ្តុំមេរោគក្នុងកំឡុងពេល២៤ម៉ោងនៃការសម្រាកពេទ្យ (CAI) / ការចាប់ផ្តើមការចេញរោគសញ្ញា (HAI)</t>
+          <t>ការបង្ករោគដោយសារមេរោគក្នុងឈាម​ (BSI)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ការបណ្តុះមេរោគក្នុងឈាមដែល contaminants</t>
+          <t>អាយុដែលបានគណនាគឺស្របទៅនឹង 'ប្រភេទអាយុ'</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ការបង្ករោគដោយសារមេរោគក្នុងឈាម​ (BSI)</t>
+          <t>អាយុដែលបានគណនាគឺមិនស្របទៅនឹង 'ប្រភេទអាយុ'</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>អាយុដែលបានគណនាគឺស្របទៅនឹង 'ប្រភេទអាយុ'</t>
+          <t>បដិសេដ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>អាយុដែលបានគណនាគឺមិនស្របទៅនឹង 'ប្រភេទអាយុ'</t>
+          <t>គួរតែយកចិត្តទុកដាក់នៅ ពេលបកស្រាយ អត្រានិងទម្រង់ AMR  ដែលមានករណីតិចតួច ឬបាក់តេរី  isolates តិចតួច : ការប៉ាន់ប្រមាណ ប្រហែលជាមិនអាចជឿទុកចិត្តបាន។</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>បដិសេដ</t>
+          <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃគឺស្របគ្នា។</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>គួរតែយកចិត្តទុកដាក់នៅ ពេលបកស្រាយ អត្រានិងទម្រង់ AMR  ដែលមានករណីតិចតួច ឬបាក់តេរី  isolates តិចតួច : ការប៉ាន់ប្រមាណ ប្រហែលជាមិនអាចជឿទុកចិត្តបាន។</t>
+          <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃ គឺមិនសមស្របចំពោះមួយអ្នកជំងឺដែលស្លាប់មួយចំនួន។</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃគឺស្របគ្នា។</t>
+          <t>លទ្ធផលគ្លីនិក</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃ គឺមិនសមស្របចំពោះមួយអ្នកជំងឺដែលស្លាប់មួយចំនួន។</t>
+          <t>ស្ថានភាពលទ្ធផលគ្លីនិក៖</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>លទ្ធផលគ្លីនិក</t>
+          <t>សហ-ភាពសុំា</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ស្ថានភាពលទ្ធផលគ្លីនិក៖</t>
+          <t>រួមបញ្ជូលគ្នានៃ Susceptible + Intermediate</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>សហ-ភាពសុំា</t>
+          <t>ពិចារណាក្នុងការរក្សាទុកឯកសារ .acorn ក្នុង cloud សម្រាប់ការបន្ថែមសុវត្ថិភាព</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>រួមបញ្ជូលគ្នានៃ Susceptible + Intermediate</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ពិចារណាក្នុងការរក្សាទុកឯកសារ .acorn ក្នុង cloud សម្រាប់ការបន្ថែមសុវត្ថិភាព</t>
+          <t>មិនអាចភ្ជាប់ម៉ាស៊ីនមេទៅបានទេ។ សូមពិនិត្យមើលដំណើរការអ៊ីនធឺណិត។</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>មិនអាចភ្ជាប់ម៉ាស៊ីនមេទៅបានទេ។ សូមពិនិត្យមើលដំណើរការអ៊ីនធឺណិត។</t>
+          <t>កំហុសឆ្គងសំខាន់ៗក្នុងផ្នែកទិន្នន័យគ្លីនិក។</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>កំហុសឆ្គងសំខាន់ៗក្នុងផ្នែកទិន្នន័យគ្លីនិក។</t>
+          <t>លទ្ធផលការបណ្តុះមេរោគតាមប្រភេទវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>លទ្ធផលការបណ្តុះមេរោគតាមប្រភេទវត្ថុវិភាគ</t>
+          <t>ការគ្រប់គ្រងទិន្នន័យ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ការគ្រប់គ្រងទិន្នន័យ</t>
+          <t>ថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+          <t>ថ្ងៃទី២៨</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ថ្ងៃទី២៨</t>
+          <t>ស្ថានភាពថ្ងៃទី២៨៖</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ស្ថានភាពថ្ងៃទី២៨៖</t>
+          <t>រោគវិនិច្ឆ័យនៅថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យនៅថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+          <t>ច្រានចោល</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ច្រានចោល</t>
+          <t>របាយអ្នកចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>របាយអ្នកចូលរួមការអង្កេតតាមដាន</t>
+          <t>ទាញយកបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ទាញយកបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន (.xlsx)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HAI point prevalance តាមប្រភេទអគារ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
@@ -1668,180 +1668,180 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
+          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
+          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Carbapenems Over Time</t>
+          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
+          <t>សុំាទៅនឹង Carbapenems Over Time</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Oxacillin Over Time</t>
+          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
+          <t>សុំាទៅនឹង Oxacillin Over Time</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G Over Time</t>
+          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
+          <t>សុំាទៅនឹង Penicillin G Over Time</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>រក្សាទុកឯកសារ .acorn</t>
+          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>រក្សាទុកទិន្នន័យ acorn</t>
+          <t>រក្សាទុកឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
+          <t>រក្សាទុកទិន្នន័យ acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>មើលតាមអគារនីមួយៗ</t>
+          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>មើលតាមសប្តាហ៍</t>
+          <t>មើលតាមអគារនីមួយៗ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ជ្រើសរើសទម្រង់នៃទិន្នន័យមន្ទីរពិសោធន៍៖</t>
+          <t>មើលតាមសប្តាហ៍</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_kh_maj.xlsx
+++ b/misc/translations/en_kh_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1241,1289 +1241,1301 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
+          <t>Isolates</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
+          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
+          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ភាសា</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn</t>
+          <t>ភាសា</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
+          <t>ប្រតិបត្តិការ .acorn</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
+          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
+          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
+          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ចុះឈ្មោះចូល</t>
+          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>មីក្រូជីវសាស្ត្រ</t>
+          <t>ចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
+          <t>មីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
+          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
+          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
+          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
+          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
+          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
+          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
+          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
+          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ពាក្យសម្ងាត់</t>
+          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>របាយអាយុអ្នកជំងឺ</t>
+          <t>ពាក្យសម្ងាត់</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
+          <t>របាយអាយុអ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
+          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
+          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>សូមចុះឈ្មោះចូល</t>
+          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
+          <t>សូមចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
+          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
+          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
+          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Carbapenems Over Time</t>
+          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
+          <t>សុំាទៅនឹង Carbapenems Over Time</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Oxacillin Over Time</t>
+          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
+          <t>សុំាទៅនឹង Oxacillin Over Time</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G Over Time</t>
+          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
+          <t>សុំាទៅនឹង Penicillin G Over Time</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>រក្សាទុកឯកសារ .acorn</t>
+          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>រក្សាទុកទិន្នន័យ acorn</t>
+          <t>រក្សាទុកឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
+          <t>រក្សាទុកទិន្នន័យ acorn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>មើលតាមអគារនីមួយៗ</t>
+          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>មើលតាមសប្តាហ៍</t>
+          <t>មើលតាមអគារនីមួយៗ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
+          <t>មើលតាមសប្តាហ៍</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
+          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ការវាយតម្លៃ SIR</t>
+          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>ការវាយតម្លៃ SIR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
+          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ប្រភេទវត្ថុវិភាគ</t>
+          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ប្រភេទវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
+          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
+          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
+          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
+          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
+          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
+          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
+          <t>Susceptible and Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
+          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
+          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
+          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
+          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
+          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
+          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
+          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
+          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
+          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
+          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
+          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
+          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
+          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
+          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>អ្នកប្រើប្រាស់</t>
+          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>អថេរក្នុងតារាង៖</t>
+          <t>អ្នកប្រើប្រាស់</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
+          <t>អថេរក្នុងតារាង៖</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
+          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
+          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>សូមស្វាគមន៍</t>
+          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
+          <t>សូមស្វាគមន៍</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
+          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
+          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
+          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
+          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
+          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>តាមដានយើងនៅលើ Twitter</t>
+          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>តាមដានយើងនៅលើ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>កត់ត្រាក្នុងទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍ក្នុងទម្រង់ BSI៖</t>
         </is>

--- a/misc/translations/en_kh_maj.xlsx
+++ b/misc/translations/en_kh_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,1798 +744,1846 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Clinical data not provided</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>លទ្ធផលគ្លីនិក</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ស្ថានភាពលទ្ធផលគ្លីនិក៖</t>
+          <t>លទ្ធផលគ្លីនិក</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>សហ-ភាពសុំា</t>
+          <t>ស្ថានភាពលទ្ធផលគ្លីនិក៖</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>រួមបញ្ជូលគ្នានៃ Susceptible + Intermediate</t>
+          <t>សហ-ភាពសុំា</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ពិចារណាក្នុងការរក្សាទុកឯកសារ .acorn ក្នុង cloud សម្រាប់ការបន្ថែមសុវត្ថិភាព</t>
+          <t>រួមបញ្ជូលគ្នានៃ Susceptible + Intermediate</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Contains names of organisms before and after mapping.</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ពិចារណាក្នុងការរក្សាទុកឯកសារ .acorn ក្នុង cloud សម្រាប់ការបន្ថែមសុវត្ថិភាព</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>មិនអាចភ្ជាប់ម៉ាស៊ីនមេទៅបានទេ។ សូមពិនិត្យមើលដំណើរការអ៊ីនធឺណិត។</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>កំហុសឆ្គងសំខាន់ៗក្នុងផ្នែកទិន្នន័យគ្លីនិក។</t>
+          <t>មិនអាចភ្ជាប់ម៉ាស៊ីនមេទៅបានទេ។ សូមពិនិត្យមើលដំណើរការអ៊ីនធឺណិត។</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>លទ្ធផលការបណ្តុះមេរោគតាមប្រភេទវត្ថុវិភាគ</t>
+          <t>កំហុសឆ្គងសំខាន់ៗក្នុងផ្នែកទិន្នន័យគ្លីនិក។</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ការគ្រប់គ្រងទិន្នន័យ</t>
+          <t>លទ្ធផលការបណ្តុះមេរោគតាមប្រភេទវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+          <t>ការគ្រប់គ្រងទិន្នន័យ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ថ្ងៃទី២៨</t>
+          <t>ថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ស្ថានភាពថ្ងៃទី២៨៖</t>
+          <t>ថ្ងៃទី២៨</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យនៅថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+          <t>ស្ថានភាពថ្ងៃទី២៨៖</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ច្រានចោល</t>
+          <t>រោគវិនិច្ឆ័យនៅថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>របាយអ្នកចូលរួមការអង្កេតតាមដាន</t>
+          <t>ច្រានចោល</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ទាញយកបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន (.xlsx)</t>
+          <t>របាយអ្នកចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Lab Log (.xlsx)</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ទាញយកបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>អង់ទីប៊ីយ៉ូទិកដែលផ្តល់</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ការចូលរួមអង្កេតតាមដាន</t>
+          <t>អង់ទីប៊ីយ៉ូទិកដែលផ្តល់</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ការចូលរួមការអង្កេតតាមដានតាម​ (ប្រភេទ) អគារ</t>
+          <t>ការចូលរួមអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ការចូលរួមការអង្កេតតាមដានជាមួយការបណ្តុះមេរោគក្នុងឈាម</t>
+          <t>ការចូលរួមការអង្កេតតាមដានតាម​ (ប្រភេទ) អគារ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>មានកំហុសក្នុងការរួមបញ្ចូលទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍។</t>
+          <t>ការចូលរួមការអង្កេតតាមដានជាមួយការបណ្តុះមេរោគក្នុងឈាម</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>កំណត់ត្រា D28 (F04) ទាំងអស់ ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>មានកំហុសក្នុងការរួមបញ្ចូលទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍។</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់(F03) ត្រូវគ្នាជាមួយ វគ្គការបង្ករោគ (F02)។</t>
+          <t>កំណត់ត្រា D28 (F04) ទាំងអស់ ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់ (F03) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន(F01)។</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់(F03) ត្រូវគ្នាជាមួយ វគ្គការបង្ករោគ (F02)។</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាវគ្គការបង្ករោគទាំងអស់ (F02) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់ (F03) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន(F01)។</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ឈ្មោះឯកសារ៖</t>
+          <t>កំណត់ត្រាវគ្គការបង្ករោគទាំងអស់ (F02) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>សន្លឹកទីមួយគឺជាបញ្ជីអ្នកចូលរួមការអង្កេតតាមដានទាំងអស់ដែលបានទាញយកពី REDCap (ដូចទៅនឹងតារាងក្បែរគ្នា)។ សន្លឹកទីពីរគឺជាបញ្ជីនៃកំហុសឆ្គងទាំងអស់។</t>
+          <t>ឈ្មោះឯកសារ៖</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ការតាមដានបន្ត</t>
+          <t>សន្លឹកទីមួយគឺជាបញ្ជីអ្នកចូលរួមការអង្កេតតាមដានទាំងអស់ដែលបានទាញយកពី REDCap (ដូចទៅនឹងតារាងក្បែរគ្នា)។ សន្លឹកទីពីរគឺជាបញ្ជីនៃកំហុសឆ្គងទាំងអស់។</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ពីការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+          <t>ការតាមដានបន្ត</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>បង្កើតឯកសារ .acorn</t>
+          <t>ពីការបណ្តុះមេរោគដែលដុះមេរោគ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Generate and load .acorn from clinical and lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>បង្កើត​និងប្រតិបត្តិការឯកសារ .acorn ពីទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍</t>
+          <t>បង្កើតឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>កំពុងបង្កើតឯកសារ .acorn</t>
+          <t>បង្កើត​និងប្រតិបត្តិការឯកសារ .acorn ពីទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ទាយទិន្នន័យពី REDCap</t>
+          <t>កំពុងបង្កើតឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ទាញយកផលិតកម្មដែលចេញចុងក្រោយបង្អស់</t>
+          <t>ទាយទិន្នន័យពី REDCap</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ដុះ / មិនដុះ</t>
+          <t>ទាញយកផលិតកម្មដែលចេញចុងក្រោយបង្អស់</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ដុះ / មិនដុះ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ប្រេវ៉ានឡង់ការបង្ករោគដែលមានប្រភពពីមន្ទីរពេទ្យ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>របារផ្តេកបង្ហាញពីទំហំសំណុំនៃលទ្ធផល SR ខណៈពេលដែលរបារបញ្ឈរបង្ហាញចំនួននៃ isolates ដែលសុំានឹងឱសថអង់ទីប៊ីយ៉ូទិកដែលឆ្លើយតប។</t>
+          <t>ប្រេវ៉ានឡង់ការបង្ករោគដែលមានប្រភពពីមន្ទីរពេទ្យ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ព៌ត័មាននៃការប្រតិបត្តិការ .acorn</t>
+          <t>របារផ្តេកបង្ហាញពីទំហំសំណុំនៃលទ្ធផល SR ខណៈពេលដែលរបារបញ្ឈរបង្ហាញចំនួននៃ isolates ដែលសុំានឹងឱសថអង់ទីប៊ីយ៉ូទិកដែលឆ្លើយតប។</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ព៌ត័មាននៃការប្រតិបត្តិការ .acorn</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
+          <t>Isolates</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
+          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
+          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ភាសា</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
+          <t>ភាសា</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
+          <t>ប្រតិបត្តិការ .acorn</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
+          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
+          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ចុះឈ្មោះចូល</t>
+          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>មីក្រូជីវសាស្ត្រ</t>
+          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
+          <t>ចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
+          <t>មីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
+          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
+          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
+          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
+          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
+          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
+          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ពាក្យសម្ងាត់</t>
+          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>របាយអាយុអ្នកជំងឺ</t>
+          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
+          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
+          <t>ពាក្យសម្ងាត់</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>សូមចុះឈ្មោះចូល</t>
+          <t>របាយអាយុអ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
+          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
+          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
+          <t>សូមចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
+          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
+          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Carbapenems Over Time</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
+          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Oxacillin Over Time</t>
+          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
+          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G Over Time</t>
+          <t>សុំាទៅនឹង Carbapenems Over Time</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
+          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>រក្សាទុកឯកសារ .acorn</t>
+          <t>សុំាទៅនឹង Oxacillin Over Time</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>រក្សាទុកទិន្នន័យ acorn</t>
+          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
+          <t>សុំាទៅនឹង Penicillin G Over Time</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>មើលតាមអគារនីមួយៗ</t>
+          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>មើលតាមសប្តាហ៍</t>
+          <t>រក្សាទុកឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
+          <t>រក្សាទុកទិន្នន័យ acorn</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
+          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ការវាយតម្លៃ SIR</t>
+          <t>មើលតាមអគារនីមួយៗ</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>មើលតាមសប្តាហ៍</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>ការវាយតម្លៃ SIR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
+          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ប្រភេទវត្ថុវិភាគ</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
+          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
+          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
+          <t>ប្រភេទវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
+          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
+          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
+          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
+          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
+          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
+          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>Susceptible and Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
+          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
+          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
+          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
+          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
+          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
+          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
+          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
+          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
+          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
+          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
+          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
+          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
+          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
+          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
+          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>អ្នកប្រើប្រាស់</t>
+          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>អថេរក្នុងតារាង៖</t>
+          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
+          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
+          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
+          <t>អ្នកប្រើប្រាស់</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>សូមស្វាគមន៍</t>
+          <t>អថេរក្នុងតារាង៖</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
+          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
+          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
+          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
+          <t>សូមស្វាគមន៍</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
+          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
+          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>តាមដានយើងនៅលើ Twitter</t>
+          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>You are running ACORN dashboard</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>You can check here if it's the latest production release.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Your ACORN dashboard is up to date</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>តាមដានយើងនៅលើ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>កត់ត្រាក្នុងទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍ក្នុងទម្រង់ BSI៖</t>
         </is>

--- a/misc/translations/en_kh_maj.xlsx
+++ b/misc/translations/en_kh_maj.xlsx
@@ -605,7 +605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ភាពស៊ាំជាមួយនឹងថ្នាំអង់ទីប៊ីយ៉ូទិក</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ទិន្ន័យគ្លីនិកមិនត្រូវបានផ្តល់ជូន</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ឈ្មោះរបស់មេរោគ មុន និង ក្រោយធ្វើការកំណត់</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ទាញយកបញ្ជីនៃមន្ទីរពិសោធន៍ (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>រោគវិនិច្ឆ័យដំបូង &amp; ចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍មិនត្រូវបានផ្ដល់ជូន</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>គ្មាន .acorn ត្រូវបានបង្កើត</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>គ្មាន .acorn ត្រូវបានរក្សាទុក</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>មានតែ Isolates ដែលបានធ្វើតេស្តប្រឆាំងឱសថគ្រប់យ៉ាងតែបុណ្ណោះ ត្រូវបានបញ្ចូលក្នុងតារាង upset plot</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>លុបចោលនូវវត្ថុវិភាគដែលមិនមានការបណ្តុះមេរោគ</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>វត្ថុវិភាគ</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_kh_maj.xlsx
+++ b/misc/translations/en_kh_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,1426 +1164,1474 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating lab file overview.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ទាយទិន្នន័យពី REDCap</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ទាញយកផលិតកម្មដែលចេញចុងក្រោយបង្អស់</t>
+          <t>ទាយទិន្នន័យពី REDCap</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ដុះ / មិនដុះ</t>
+          <t>ទាញយកផលិតកម្មដែលចេញចុងក្រោយបង្អស់</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ដុះ / មិនដុះ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ប្រេវ៉ានឡង់ការបង្ករោគដែលមានប្រភពពីមន្ទីរពេទ្យ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>របារផ្តេកបង្ហាញពីទំហំសំណុំនៃលទ្ធផល SR ខណៈពេលដែលរបារបញ្ឈរបង្ហាញចំនួននៃ isolates ដែលសុំានឹងឱសថអង់ទីប៊ីយ៉ូទិកដែលឆ្លើយតប។</t>
+          <t>ប្រេវ៉ានឡង់ការបង្ករោគដែលមានប្រភពពីមន្ទីរពេទ្យ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ព៌ត័មាននៃការប្រតិបត្តិការ .acorn</t>
+          <t>របារផ្តេកបង្ហាញពីទំហំសំណុំនៃលទ្ធផល SR ខណៈពេលដែលរបារបញ្ឈរបង្ហាញចំនួននៃ isolates ដែលសុំានឹងឱសថអង់ទីប៊ីយ៉ូទិកដែលឆ្លើយតប។</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យដំបូង &amp; ចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
+          <t>ព៌ត័មាននៃការប្រតិបត្តិការ .acorn</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
+          <t>រោគវិនិច្ឆ័យដំបូង &amp; ចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
+          <t>Isolates</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
+          <t>បានរកឃើញបញ្ហាជាមួយនឹងទិន្នន័យ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍មិនត្រូវបានផ្ដល់ជូន</t>
+          <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍មិនត្រូវបានផ្ដល់ជូន</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
+          <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ភាសា</t>
+          <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab file overview (optional)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
+          <t>ភាសា</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
+          <t>ប្រតិបត្តិការ .acorn</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
+          <t>ប្រតិបត្តិការ .acorn ពី​ cloud</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
+          <t>ប្រតិបត្តិការ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ចុះឈ្មោះចូល</t>
+          <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>មីក្រូជីវសាស្ត្រ</t>
+          <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
+          <t>ចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
+          <t>មីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>គ្មាន .acorn ត្រូវបានបង្កើត</t>
+          <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>គ្មាន .acorn ត្រូវបានរក្សាទុក</t>
+          <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
+          <t>គ្មាន .acorn ត្រូវបានបង្កើត</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
+          <t>គ្មាន .acorn ត្រូវបានរក្សាទុក</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
+          <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
+          <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
+          <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+          <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
+          <t>នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
+          <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>មានតែ Isolates ដែលបានធ្វើតេស្តប្រឆាំងឱសថគ្រប់យ៉ាងតែបុណ្ណោះ ត្រូវបានបញ្ចូលក្នុងតារាង upset plot</t>
+          <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
+          <t xml:space="preserve">នៃមេរោគគោលដៅ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ពាក្យសម្ងាត់</t>
+          <t>មានតែ Isolates ដែលបានធ្វើតេស្តប្រឆាំងឱសថគ្រប់យ៉ាងតែបុណ្ណោះ ត្រូវបានបញ្ចូលក្នុងតារាង upset plot</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>របាយអាយុអ្នកជំងឺ</t>
+          <t xml:space="preserve">ទិដ្ឋភាពទូទៅ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Overview of lab file successfully generated!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
+          <t>ពាក្យសម្ងាត់</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
+          <t>របាយអាយុអ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>សូមចុះឈ្មោះចូល</t>
+          <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
+          <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
+          <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>លុបចោលនូវវត្ថុវិភាគដែលមិនមានការបណ្តុះមេរោគ</t>
+          <t>សូមចុះឈ្មោះចូល</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Process Lab File</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
+          <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
+          <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Carbapenems Over Time</t>
+          <t>លុបចោលនូវវត្ថុវិភាគដែលមិនមានការបណ្តុះមេរោគ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
+          <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Oxacillin Over Time</t>
+          <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
+          <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>សុំាទៅនឹង Penicillin G Over Time</t>
+          <t>សុំាទៅនឹង Carbapenems Over Time</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
+          <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>រក្សាទុកឯកសារ .acorn</t>
+          <t>សុំាទៅនឹង Oxacillin Over Time</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>រក្សាទុកទិន្នន័យ acorn</t>
+          <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
+          <t>សុំាទៅនឹង Penicillin G Over Time</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>មើលតាមអគារនីមួយៗ</t>
+          <t>ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>មើលតាមសប្តាហ៍</t>
+          <t>រក្សាទុកឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
+          <t>រក្សាទុកទិន្នន័យ acorn</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
+          <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ការវាយតម្លៃ SIR</t>
+          <t>មើលតាមអគារនីមួយៗ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>មើលតាមសប្តាហ៍</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+          <t>បង្ហាញការរួមបញ្ជូលគ្នានៃឱសថអង់ទីប៊ីយ៉ូទិក</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+          <t>ការវាយតម្លៃ SIR</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+          <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
+          <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ប្រភេទវត្ថុវិភាគ</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគ</t>
+          <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
+          <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
+          <t>កំណត់ត្រាមួយចំនួនមិនមាន ACORN ID។ កំណត់ត្រាទាំងនេះបានត្រូវលុបចោល។</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
+          <t>ប្រភេទវត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
+          <t>វត្ថុវិភាគ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
+          <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
+          <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
+          <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
+          <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
+          <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
+          <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
+          <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>Susceptible and Intermediate​ គឺតែងតែរួមបញ្ជូលគ្នានៅក្នុង​គំនូសតាងនៃសហ-ភាពសុំា</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
+          <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
+          <t>patient id' ខាងក្រោមគឺជាករណីមិនប្រក្រតី (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)៖</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
+          <t>'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺមិនមានទិន្នន័យ / ខុសទម្រង់។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
+          <t>សំណុំទិន្នន័យ REDCap គឺត្រឹមត្រូវតាមទម្រង់។</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
+          <t>មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុក។</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
+          <t>មាន F02 ច្រើនដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នា។</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
+          <t>មិនមានករណីមិនធម្មតាទេ (HCAI/CAI មួយ ជាមួយ HAI ដំបូងប៉ុន្តែមិនមានការជាន់គ្នា)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
+          <t>គ្មានការតាមដានបន្ត D28 បំពេញមុនថ្ងៃ D28 ដែលរំពឹងទុកនោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
+          <t>គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
+          <t>គ្មាន F02 ដែលមាន ACORN ID កាលបរិច្ឆេទចូលសម្រាកពេទ្យ និងកាលបរិច្ឆេទចូលរួមវគ្គអង្កេតតាមដានដូចគ្នានោះទេ។</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
+          <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
+          <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
+          <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
+          <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
+          <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
+          <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
+          <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
+          <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>អ្នកប្រើប្រាស់</t>
+          <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>អថេរក្នុងតារាង៖</t>
+          <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
+          <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
+          <t>បច្ចុប្បន្នភាព Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
+          <t>អ្នកប្រើប្រាស់</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>សូមស្វាគមន៍</t>
+          <t>អថេរក្នុងតារាង៖</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
+          <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
+          <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
+          <t>យើងមិនអាចទាញយកវចនានុក្រមទិន្នន័យមន្ទីរពិសោធន៍បាននោះទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគាំទ្រ ACORN</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
+          <t>សូមស្វាគមន៍</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
+          <t>តើអ្នកចង់ធ្វើអ្វី?</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
+          <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>តាមដានយើងនៅលើ Twitter</t>
+          <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>You are running ACORN dashboard</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>អ្នកកំពុងដំណើរការផ្ទាំងគ្រប់គ្រង ACORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>You can check here if it's the latest production release.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>អ្នកអាចពិនិត្យមើលនៅទីនេះ ថាតើផលិតកម្មជាជំនាន់ចុងក្រោយបង្អស់ឬទេ</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Your ACORN dashboard is up to date</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ផ្ទាំងគ្រប់គ្រង ACORN របស់អ្នកគឺជាជំនាន់ចុងក្រោយបង្អស់</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>តាមដានយើងនៅលើ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>កត់ត្រាក្នុងទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍ក្នុងទម្រង់ BSI៖</t>
         </is>
